--- a/xlsx/hollow_cylinder_quartic.xlsx
+++ b/xlsx/hollow_cylinder_quartic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE62D9-FB60-EC42-A363-97E94C1A5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E660F47-251B-8344-A19F-D96D4B16B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="5" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-1.856966547201831</v>
+        <v>-1.8569665472018311</v>
       </c>
       <c r="B2">
         <v>-1.619035190464162</v>
@@ -620,13 +620,13 @@
         <v>-1.683842861200515</v>
       </c>
       <c r="E2">
-        <v>-3.3820975393645156</v>
+        <v>-3.6899567085315836</v>
       </c>
       <c r="F2">
-        <v>-3.9362362798845214</v>
+        <v>-3.9863857144617425</v>
       </c>
       <c r="G2">
-        <v>-4.087565178575801</v>
+        <v>-4.0875651785758009</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -643,13 +643,13 @@
         <v>-2.4642407428366764</v>
       </c>
       <c r="E3">
-        <v>-5.037748091029312</v>
+        <v>-5.080717484725934</v>
       </c>
       <c r="F3">
-        <v>-5.454753274308957</v>
+        <v>-5.766199363716808</v>
       </c>
       <c r="G3">
-        <v>-5.541311040455528</v>
+        <v>-5.5413110404555281</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -666,13 +666,13 @@
         <v>-3.1104269844067516</v>
       </c>
       <c r="E4">
-        <v>-6.207820894251643</v>
+        <v>-6.2530564236882569</v>
       </c>
       <c r="F4">
-        <v>-7.513143119632095</v>
+        <v>-7.208916328388346</v>
       </c>
       <c r="G4">
-        <v>-7.511828474923662</v>
+        <v>-7.5118284749236617</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -689,13 +689,13 @@
         <v>-3.6436922286398756</v>
       </c>
       <c r="E5">
-        <v>-6.6860207396234825</v>
+        <v>-6.673966723986319</v>
       </c>
       <c r="F5">
-        <v>-9.036224670525431</v>
+        <v>-8.768430972495505</v>
       </c>
       <c r="G5">
-        <v>-9.021043684043796</v>
+        <v>-9.0210436840437964</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +712,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -763,13 +763,13 @@
         <v>-1.394490628100084</v>
       </c>
       <c r="D2">
-        <v>-1.322954905959867</v>
+        <v>-1.3229549059598671</v>
       </c>
       <c r="E2">
-        <v>-3.063716285361788</v>
+        <v>-3.0473528336240405</v>
       </c>
       <c r="F2">
-        <v>-3.3526938293612467</v>
+        <v>-3.4923186104451243</v>
       </c>
       <c r="G2">
         <v>-3.5659189255905486</v>
@@ -786,16 +786,16 @@
         <v>-1.8438625513514932</v>
       </c>
       <c r="D3">
-        <v>-1.754254123680438</v>
+        <v>-1.7542541236804381</v>
       </c>
       <c r="E3">
-        <v>-4.475793288512689</v>
+        <v>-4.4997667075650565</v>
       </c>
       <c r="F3">
-        <v>-4.664188175283227</v>
+        <v>-4.874374005617032</v>
       </c>
       <c r="G3">
-        <v>-4.747302986145897</v>
+        <v>-4.7473029861458969</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -803,22 +803,22 @@
         <v>-2.4241685244591813</v>
       </c>
       <c r="B4">
-        <v>-2.412343299275191</v>
+        <v>-2.4123432992751912</v>
       </c>
       <c r="C4">
-        <v>-2.42429799872411</v>
+        <v>-2.4242979987241098</v>
       </c>
       <c r="D4">
         <v>-2.4118653632122395</v>
       </c>
       <c r="E4">
-        <v>-5.7860498210531945</v>
+        <v>-5.8547699099482085</v>
       </c>
       <c r="F4">
-        <v>-6.3527157586377125</v>
+        <v>-6.048486737529012</v>
       </c>
       <c r="G4">
-        <v>-6.172252639123508</v>
+        <v>-6.1722526391235082</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -829,19 +829,19 @@
         <v>-2.9158462233814983</v>
       </c>
       <c r="C5">
-        <v>-2.927100213198972</v>
+        <v>-2.9271002131989721</v>
       </c>
       <c r="D5">
-        <v>-2.916639768808068</v>
+        <v>-2.9166397688080679</v>
       </c>
       <c r="E5">
-        <v>-6.103270135611046</v>
+        <v>-6.061937498543539</v>
       </c>
       <c r="F5">
-        <v>-7.525964254963103</v>
+        <v>-7.2314211972782125</v>
       </c>
       <c r="G5">
-        <v>-7.371876192489022</v>
+        <v>-7.3718761924890224</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +855,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -897,22 +897,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.8174286498981732</v>
+        <v>-0.81742864989817321</v>
       </c>
       <c r="B2">
-        <v>-0.7234733798416632</v>
+        <v>-0.72347337984166316</v>
       </c>
       <c r="C2">
-        <v>-0.8196532180676835</v>
+        <v>-0.81965321806768354</v>
       </c>
       <c r="D2">
         <v>-0.7695414162623484</v>
       </c>
       <c r="E2">
-        <v>-2.311025996144239</v>
+        <v>-2.2853416024959534</v>
       </c>
       <c r="F2">
-        <v>-2.29750085518827</v>
+        <v>-2.4299454885356826</v>
       </c>
       <c r="G2">
         <v>-2.4687982408254663</v>
@@ -923,22 +923,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.7717013334287826</v>
+        <v>-0.77170133342878255</v>
       </c>
       <c r="B3">
-        <v>-0.5352470253206594</v>
+        <v>-0.53524702532065938</v>
       </c>
       <c r="C3">
-        <v>-0.8570268749764545</v>
+        <v>-0.85702687497645447</v>
       </c>
       <c r="D3">
-        <v>-0.7001745478032965</v>
+        <v>-0.70017454780329647</v>
       </c>
       <c r="E3">
-        <v>-3.4362551495799285</v>
+        <v>-3.474866704934225</v>
       </c>
       <c r="F3">
-        <v>-3.2800957480036</v>
+        <v>-3.5118343360431252</v>
       </c>
       <c r="G3">
         <v>-3.520032274426546</v>
@@ -961,13 +961,13 @@
         <v>-1.0023842409329495</v>
       </c>
       <c r="E4">
-        <v>-4.59845419156615</v>
+        <v>-4.6433293356811758</v>
       </c>
       <c r="F4">
-        <v>-4.78699627565181</v>
+        <v>-4.3976361888320366</v>
       </c>
       <c r="G4">
-        <v>-4.758672329445736</v>
+        <v>-4.7586723294457363</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -984,16 +984,16 @@
         <v>-1.192728627521318</v>
       </c>
       <c r="D5">
-        <v>-1.19227657675687</v>
+        <v>-1.1922765767568699</v>
       </c>
       <c r="E5">
-        <v>-5.015562301211212</v>
+        <v>-5.021233928590809</v>
       </c>
       <c r="F5">
-        <v>-5.753864354561159</v>
+        <v>-5.266383220932791</v>
       </c>
       <c r="G5">
-        <v>-5.860566900973183</v>
+        <v>-5.8605669009731827</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>0.050960103624447306</v>
+        <v>5.0960103624447306E-2</v>
       </c>
       <c r="B2">
         <v>0.10742389188463251</v>
       </c>
       <c r="C2">
-        <v>0.042345691364664505</v>
+        <v>4.2345691364664505E-2</v>
       </c>
       <c r="D2">
-        <v>0.06758638607850771</v>
+        <v>6.7586386078507713E-2</v>
       </c>
       <c r="E2">
-        <v>-1.2885444731409461</v>
+        <v>-1.3345243064313017</v>
       </c>
       <c r="F2">
-        <v>-1.2845539192965185</v>
+        <v>-1.3357055212084006</v>
       </c>
       <c r="G2">
         <v>-1.3434104371087479</v>
@@ -1080,19 +1080,19 @@
         <v>0.3323068707249226</v>
       </c>
       <c r="B3">
-        <v>0.5141434599547087</v>
+        <v>0.51414345995470867</v>
       </c>
       <c r="C3">
-        <v>0.2979913457171451</v>
+        <v>0.29799134571714508</v>
       </c>
       <c r="D3">
         <v>0.43092246754387314</v>
       </c>
       <c r="E3">
-        <v>-2.1124824565540004</v>
+        <v>-2.126675713866602</v>
       </c>
       <c r="F3">
-        <v>-2.004310146773126</v>
+        <v>-2.1206059270872974</v>
       </c>
       <c r="G3">
         <v>-2.1170106700822884</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.3104601929616962</v>
+        <v>0.31046019296169619</v>
       </c>
       <c r="B4">
-        <v>0.3141207905040361</v>
+        <v>0.31412079050403607</v>
       </c>
       <c r="C4">
         <v>0.3079515004736057</v>
@@ -1115,10 +1115,10 @@
         <v>0.31696590903083527</v>
       </c>
       <c r="E4">
-        <v>-2.8506113698037527</v>
+        <v>-2.8698483957678596</v>
       </c>
       <c r="F4">
-        <v>-2.8994812308265527</v>
+        <v>-2.824009784842777</v>
       </c>
       <c r="G4">
         <v>-2.905736861886937</v>
@@ -1129,22 +1129,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.3275389754767903</v>
+        <v>0.32753897547679028</v>
       </c>
       <c r="B5">
-        <v>0.328388703664896</v>
+        <v>0.32838870366489598</v>
       </c>
       <c r="C5">
-        <v>0.3270076733112238</v>
+        <v>0.32700767331122382</v>
       </c>
       <c r="D5">
         <v>0.32780671424639946</v>
       </c>
       <c r="E5">
-        <v>-3.217549462505163</v>
+        <v>-3.2911031252245437</v>
       </c>
       <c r="F5">
-        <v>-3.6248949856741493</v>
+        <v>-3.392062452868005</v>
       </c>
       <c r="G5">
         <v>-3.6284798443169297</v>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97888836-164C-094F-BF6D-4F7F72F4BBB5}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/hollow_cylinder_quartic.xlsx
+++ b/xlsx/hollow_cylinder_quartic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrbc-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E660F47-251B-8344-A19F-D96D4B16B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4308DCA-E553-46DD-999A-D9180CC98D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="26595" activeTab="4" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -24,14 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -112,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,10 +491,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -520,43 +512,44 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <f>LOG10(A2/B2)</f>
-        <v>-1</v>
+        <v>-0.90308998699194354</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f>LOG10(A2/B3)</f>
-        <v>-1.3010299956639813</v>
+        <v>-1.2041199826559248</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <f>LOG10(A2/B4)</f>
-        <v>-1.6020599913279623</v>
+        <v>-1.505149978319906</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <f>LOG10(A2/B5)</f>
-        <v>-1.9030899869919435</v>
+        <v>-1.8061799739838871</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -564,16 +557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
@@ -608,10 +601,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-1.8569665472018311</v>
+        <v>-1.832025192048601</v>
       </c>
       <c r="B2">
-        <v>-1.619035190464162</v>
+        <v>-1.6705592914639233</v>
       </c>
       <c r="C2">
         <v>-1.8320495906117513</v>
@@ -620,21 +613,21 @@
         <v>-1.683842861200515</v>
       </c>
       <c r="E2">
-        <v>-3.6899567085315836</v>
+        <v>-3.6890237073219692</v>
       </c>
       <c r="F2">
-        <v>-3.9863857144617425</v>
+        <v>-3.986609509631075</v>
       </c>
       <c r="G2">
-        <v>-4.0875651785758009</v>
+        <v>-4.087508299728928</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-2.4423423810195075</v>
+        <v>-2.511772730552313</v>
       </c>
       <c r="B3">
-        <v>-2.2278704825486333</v>
+        <v>-2.008373702534521</v>
       </c>
       <c r="C3">
         <v>-2.5117724089601294</v>
@@ -643,21 +636,21 @@
         <v>-2.4642407428366764</v>
       </c>
       <c r="E3">
-        <v>-5.080717484725934</v>
+        <v>-5.0806337140422153</v>
       </c>
       <c r="F3">
-        <v>-5.766199363716808</v>
+        <v>-5.766139609963853</v>
       </c>
       <c r="G3">
-        <v>-5.5413110404555281</v>
+        <v>-5.541010898745167</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-3.2430024242428876</v>
+        <v>-3.2385055571767527</v>
       </c>
       <c r="B4">
-        <v>-3.1025343627797413</v>
+        <v>-3.1236030554941712</v>
       </c>
       <c r="C4">
         <v>-3.2385055939960647</v>
@@ -666,21 +659,21 @@
         <v>-3.1104269844067516</v>
       </c>
       <c r="E4">
-        <v>-6.2530564236882569</v>
+        <v>-6.2521382387244113</v>
       </c>
       <c r="F4">
-        <v>-7.208916328388346</v>
+        <v>-7.377865530691785</v>
       </c>
       <c r="G4">
-        <v>-7.5118284749236617</v>
+        <v>-7.520746899699389</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-3.7528891528963144</v>
+        <v>-3.7555047913929704</v>
       </c>
       <c r="B5">
-        <v>-3.6387168318151475</v>
+        <v>-3.6417517809935358</v>
       </c>
       <c r="C5">
         <v>-3.7555080069159996</v>
@@ -689,13 +682,13 @@
         <v>-3.6436922286398756</v>
       </c>
       <c r="E5">
-        <v>-6.673966723986319</v>
+        <v>-6.456496274778365</v>
       </c>
       <c r="F5">
-        <v>-8.768430972495505</v>
+        <v>-8.634908960940882</v>
       </c>
       <c r="G5">
-        <v>-9.0210436840437964</v>
+        <v>-9.052317475070527</v>
       </c>
     </row>
   </sheetData>
@@ -715,15 +708,15 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -754,10 +747,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.398147053816311</v>
+        <v>-1.3944930232399126</v>
       </c>
       <c r="B2">
-        <v>-1.2884934873088054</v>
+        <v>-1.3172620126358261</v>
       </c>
       <c r="C2">
         <v>-1.394490628100084</v>
@@ -766,21 +759,21 @@
         <v>-1.3229549059598671</v>
       </c>
       <c r="E2">
-        <v>-3.0473528336240405</v>
+        <v>-3.0475136676113577</v>
       </c>
       <c r="F2">
-        <v>-3.4923186104451243</v>
+        <v>-3.4928806303159368</v>
       </c>
       <c r="G2">
-        <v>-3.5659189255905486</v>
+        <v>-3.5694710579841153</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.8000186616856368</v>
+        <v>-1.8438626165471814</v>
       </c>
       <c r="B3">
-        <v>-1.6552877099545522</v>
+        <v>-1.793491814282689</v>
       </c>
       <c r="C3">
         <v>-1.8438625513514932</v>
@@ -789,21 +782,21 @@
         <v>-1.7542541236804381</v>
       </c>
       <c r="E3">
-        <v>-4.4997667075650565</v>
+        <v>-4.4997242463499001</v>
       </c>
       <c r="F3">
-        <v>-4.874374005617032</v>
+        <v>-4.874347719774538</v>
       </c>
       <c r="G3">
-        <v>-4.7473029861458969</v>
+        <v>-4.747265724297718</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-2.4241685244591813</v>
+        <v>-2.4242979764600263</v>
       </c>
       <c r="B4">
-        <v>-2.4123432992751912</v>
+        <v>-2.4132983174182496</v>
       </c>
       <c r="C4">
         <v>-2.4242979987241098</v>
@@ -812,21 +805,21 @@
         <v>-2.4118653632122395</v>
       </c>
       <c r="E4">
-        <v>-5.8547699099482085</v>
+        <v>-5.8511034762601168</v>
       </c>
       <c r="F4">
-        <v>-6.048486737529012</v>
+        <v>-6.112638505173259</v>
       </c>
       <c r="G4">
-        <v>-6.1722526391235082</v>
+        <v>-6.172891384815664</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-2.9265143353893985</v>
+        <v>-2.927100130101933</v>
       </c>
       <c r="B5">
-        <v>-2.9158462233814983</v>
+        <v>-2.9161583041123258</v>
       </c>
       <c r="C5">
         <v>-2.9271002131989721</v>
@@ -835,13 +828,13 @@
         <v>-2.9166397688080679</v>
       </c>
       <c r="E5">
-        <v>-6.061937498543539</v>
+        <v>-6.0883073122999942</v>
       </c>
       <c r="F5">
-        <v>-7.2314211972782125</v>
+        <v>-7.129440745524446</v>
       </c>
       <c r="G5">
-        <v>-7.3718761924890224</v>
+        <v>-7.37178135292334</v>
       </c>
     </row>
   </sheetData>
@@ -858,13 +851,13 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
@@ -897,10 +890,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.81742864989817321</v>
+        <v>-0.81965367083204432</v>
       </c>
       <c r="B2">
-        <v>-0.72347337984166316</v>
+        <v>-0.76432489668479098</v>
       </c>
       <c r="C2">
         <v>-0.81965321806768354</v>
@@ -909,13 +902,13 @@
         <v>-0.7695414162623484</v>
       </c>
       <c r="E2">
-        <v>-2.2853416024959534</v>
+        <v>-2.2855475809094816</v>
       </c>
       <c r="F2">
-        <v>-2.4299454885356826</v>
+        <v>-2.4301155241286136</v>
       </c>
       <c r="G2">
-        <v>-2.4687982408254663</v>
+        <v>-2.46918659379267</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -923,10 +916,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.77170133342878255</v>
+        <v>-0.85702693163864596</v>
       </c>
       <c r="B3">
-        <v>-0.53524702532065938</v>
+        <v>-0.87408010056667274</v>
       </c>
       <c r="C3">
         <v>-0.85702687497645447</v>
@@ -935,13 +928,13 @@
         <v>-0.70017454780329647</v>
       </c>
       <c r="E3">
-        <v>-3.474866704934225</v>
+        <v>-3.4748673168851352</v>
       </c>
       <c r="F3">
-        <v>-3.5118343360431252</v>
+        <v>-3.51183532179813</v>
       </c>
       <c r="G3">
-        <v>-3.520032274426546</v>
+        <v>-3.520045558960777</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -949,10 +942,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.0121628329130814</v>
+        <v>-1.0096598358504967</v>
       </c>
       <c r="B4">
-        <v>-1.0102147126258685</v>
+        <v>-1.0034636251813887</v>
       </c>
       <c r="C4">
         <v>-1.0096597209288538</v>
@@ -961,13 +954,13 @@
         <v>-1.0023842409329495</v>
       </c>
       <c r="E4">
-        <v>-4.6433293356811758</v>
+        <v>-4.6352525347718707</v>
       </c>
       <c r="F4">
-        <v>-4.3976361888320366</v>
+        <v>-4.449134074748638</v>
       </c>
       <c r="G4">
-        <v>-4.7586723294457363</v>
+        <v>-4.758592667765207</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -975,10 +968,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.1922107822393406</v>
+        <v>-1.1927284798210431</v>
       </c>
       <c r="B5">
-        <v>-1.1917353347259805</v>
+        <v>-1.1920266016253469</v>
       </c>
       <c r="C5">
         <v>-1.192728627521318</v>
@@ -987,13 +980,13 @@
         <v>-1.1922765767568699</v>
       </c>
       <c r="E5">
-        <v>-5.021233928590809</v>
+        <v>-4.9975208174445811</v>
       </c>
       <c r="F5">
-        <v>-5.266383220932791</v>
+        <v>-5.146376973865246</v>
       </c>
       <c r="G5">
-        <v>-5.8605669009731827</v>
+        <v>-5.8614623147945535</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1009,18 +1002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0EA69-7794-FB45-9F94-24E0DEA4E386}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1051,10 +1044,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>5.0960103624447306E-2</v>
+        <v>4.2344127206935506E-2</v>
       </c>
       <c r="B2">
-        <v>0.10742389188463251</v>
+        <v>7.2012263168160145E-2</v>
       </c>
       <c r="C2">
         <v>4.2345691364664505E-2</v>
@@ -1063,13 +1056,13 @@
         <v>6.7586386078507713E-2</v>
       </c>
       <c r="E2">
-        <v>-1.3345243064313017</v>
+        <v>-1.3347974360196915</v>
       </c>
       <c r="F2">
-        <v>-1.3357055212084006</v>
+        <v>-1.3358443187275841</v>
       </c>
       <c r="G2">
-        <v>-1.3434104371087479</v>
+        <v>-1.3436510057941333</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1077,10 +1070,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.3323068707249226</v>
+        <v>0.29799133788691162</v>
       </c>
       <c r="B3">
-        <v>0.51414345995470867</v>
+        <v>0.28530118248229591</v>
       </c>
       <c r="C3">
         <v>0.29799134571714508</v>
@@ -1089,13 +1082,13 @@
         <v>0.43092246754387314</v>
       </c>
       <c r="E3">
-        <v>-2.126675713866602</v>
+        <v>-2.1266750106615202</v>
       </c>
       <c r="F3">
-        <v>-2.1206059270872974</v>
+        <v>-2.120603694308332</v>
       </c>
       <c r="G3">
-        <v>-2.1170106700822884</v>
+        <v>-2.1170111972381846</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1103,10 +1096,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.31046019296169619</v>
+        <v>0.30795136364445003</v>
       </c>
       <c r="B4">
-        <v>0.31412079050403607</v>
+        <v>0.31631608510850656</v>
       </c>
       <c r="C4">
         <v>0.3079515004736057</v>
@@ -1115,13 +1108,13 @@
         <v>0.31696590903083527</v>
       </c>
       <c r="E4">
-        <v>-2.8698483957678596</v>
+        <v>-2.8666252774677026</v>
       </c>
       <c r="F4">
-        <v>-2.824009784842777</v>
+        <v>-2.8343768711927146</v>
       </c>
       <c r="G4">
-        <v>-2.905736861886937</v>
+        <v>-2.9057428299381636</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1129,10 +1122,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.32753897547679028</v>
+        <v>0.32700773887447665</v>
       </c>
       <c r="B5">
-        <v>0.32838870366489598</v>
+        <v>0.32882784050514424</v>
       </c>
       <c r="C5">
         <v>0.32700767331122382</v>
@@ -1141,13 +1134,13 @@
         <v>0.32780671424639946</v>
       </c>
       <c r="E5">
-        <v>-3.2911031252245437</v>
+        <v>-3.266418566009726</v>
       </c>
       <c r="F5">
-        <v>-3.392062452868005</v>
+        <v>-3.3001581689499577</v>
       </c>
       <c r="G5">
-        <v>-3.6284798443169297</v>
+        <v>-3.6286380533527516</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1167,13 +1160,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/xlsx/hollow_cylinder_quartic.xlsx
+++ b/xlsx/hollow_cylinder_quartic.xlsx
@@ -616,7 +616,7 @@
         <v>-3.6890237073219692</v>
       </c>
       <c r="F2">
-        <v>-3.986609509631075</v>
+        <v>-3.799310250675695</v>
       </c>
       <c r="G2">
         <v>-4.087508299728928</v>
@@ -762,7 +762,7 @@
         <v>-3.0475136676113577</v>
       </c>
       <c r="F2">
-        <v>-3.4928806303159368</v>
+        <v>-3.3642453782428303</v>
       </c>
       <c r="G2">
         <v>-3.5694710579841153</v>
@@ -905,7 +905,7 @@
         <v>-2.2855475809094816</v>
       </c>
       <c r="F2">
-        <v>-2.4301155241286136</v>
+        <v>-2.4169311572378636</v>
       </c>
       <c r="G2">
         <v>-2.46918659379267</v>
@@ -1059,7 +1059,7 @@
         <v>-1.3347974360196915</v>
       </c>
       <c r="F2">
-        <v>-1.3358443187275841</v>
+        <v>-1.3337471871351982</v>
       </c>
       <c r="G2">
         <v>-1.3436510057941333</v>

--- a/xlsx/hollow_cylinder_quartic.xlsx
+++ b/xlsx/hollow_cylinder_quartic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/program/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4308DCA-E553-46DD-999A-D9180CC98D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E021365C-88D8-DF41-9383-A1341BB82A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="26595" activeTab="4" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21900" activeTab="5" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -25,12 +25,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,14 +61,6 @@
   </si>
   <si>
     <t>RKGSI-Nitsche</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shape functions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assembly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,17 +158,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,7 +488,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -558,31 +552,31 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -593,102 +587,102 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
         <v>-1.832025192048601</v>
       </c>
       <c r="B2">
-        <v>-1.6705592914639233</v>
+        <v>-2.1049171843981394</v>
       </c>
       <c r="C2">
-        <v>-1.8320495906117513</v>
+        <v>-2.1059181363088104</v>
       </c>
       <c r="D2">
-        <v>-1.683842861200515</v>
+        <v>-2.5620712956908385</v>
       </c>
       <c r="E2">
-        <v>-3.6890237073219692</v>
+        <v>-3.4253263800472338</v>
       </c>
       <c r="F2">
-        <v>-3.799310250675695</v>
+        <v>-3.664538659820944</v>
       </c>
       <c r="G2">
-        <v>-4.087508299728928</v>
+        <v>-4.087508302399601</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-2.511772730552313</v>
+        <v>-2.2296316904301707</v>
       </c>
       <c r="B3">
-        <v>-2.008373702534521</v>
+        <v>-2.2115643472819202</v>
       </c>
       <c r="C3">
-        <v>-2.5117724089601294</v>
+        <v>-2.5798393268323654</v>
       </c>
       <c r="D3">
-        <v>-2.4642407428366764</v>
+        <v>-3.0432495655750347</v>
       </c>
       <c r="E3">
-        <v>-5.0806337140422153</v>
+        <v>-5.0811889922940816</v>
       </c>
       <c r="F3">
-        <v>-5.766139609963853</v>
+        <v>-5.3988693442146953</v>
       </c>
       <c r="G3">
-        <v>-5.541010898745167</v>
+        <v>-5.5410128062362336</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-3.2385055571767527</v>
+        <v>-1.9606565612248184</v>
       </c>
       <c r="B4">
-        <v>-3.1236030554941712</v>
+        <v>-2.425963733917011</v>
       </c>
       <c r="C4">
-        <v>-3.2385055939960647</v>
+        <v>-3.3036411868293176</v>
       </c>
       <c r="D4">
-        <v>-3.1104269844067516</v>
+        <v>-3.3816572021359659</v>
       </c>
       <c r="E4">
-        <v>-6.2521382387244113</v>
+        <v>-6.3932903833964527</v>
       </c>
       <c r="F4">
-        <v>-7.377865530691785</v>
+        <v>-6.9381718779716914</v>
       </c>
       <c r="G4">
-        <v>-7.520746899699389</v>
+        <v>-7.7195284023663371</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-3.7555047913929704</v>
+        <v>-2.0822848671599044</v>
       </c>
       <c r="B5">
-        <v>-3.6417517809935358</v>
+        <v>-2.9819013729804591</v>
       </c>
       <c r="C5">
-        <v>-3.7555080069159996</v>
+        <v>-1.692362605569515</v>
       </c>
       <c r="D5">
-        <v>-3.6436922286398756</v>
+        <v>-3.5027853100009305</v>
       </c>
       <c r="E5">
-        <v>-6.456496274778365</v>
+        <v>-5.3200270553589</v>
       </c>
       <c r="F5">
-        <v>-8.634908960940882</v>
+        <v>-7.593927752048623</v>
       </c>
       <c r="G5">
-        <v>-9.052317475070527</v>
+        <v>-9.021136214655627</v>
       </c>
     </row>
   </sheetData>
@@ -702,35 +696,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -741,100 +735,97 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>-1.3944930232399126</v>
       </c>
       <c r="B2">
-        <v>-1.3172620126358261</v>
+        <v>-1.6127883588278458</v>
       </c>
       <c r="C2">
-        <v>-1.394490628100084</v>
+        <v>-1.6131848704012348</v>
       </c>
       <c r="D2">
-        <v>-1.3229549059598671</v>
+        <v>-1.9848529128147181</v>
       </c>
       <c r="E2">
-        <v>-3.0475136676113577</v>
+        <v>-3.1167608276975529</v>
       </c>
       <c r="F2">
-        <v>-3.3642453782428303</v>
+        <v>-3.3021224497182824</v>
       </c>
       <c r="G2">
-        <v>-3.5694710579841153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>-3.5694710560833194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>-1.8438626165471814</v>
+        <v>-1.9548319835483112</v>
       </c>
       <c r="B3">
-        <v>-1.793491814282689</v>
+        <v>-1.8918387328927548</v>
       </c>
       <c r="C3">
-        <v>-1.8438625513514932</v>
+        <v>-2.0167068277740663</v>
       </c>
       <c r="D3">
-        <v>-1.7542541236804381</v>
+        <v>-2.1870036768336276</v>
       </c>
       <c r="E3">
-        <v>-4.4997242463499001</v>
+        <v>-4.5038678266699002</v>
       </c>
       <c r="F3">
-        <v>-4.874347719774538</v>
+        <v>-4.664965233299327</v>
       </c>
       <c r="G3">
-        <v>-4.747265724297718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-4.7472658145463456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>-2.4242979764600263</v>
+        <v>-1.900820255503475</v>
       </c>
       <c r="B4">
-        <v>-2.4132983174182496</v>
+        <v>-2.0611235530874996</v>
       </c>
       <c r="C4">
-        <v>-2.4242979987241098</v>
+        <v>-2.5027660960908942</v>
       </c>
       <c r="D4">
-        <v>-2.4118653632122395</v>
+        <v>-2.5315170743125313</v>
       </c>
       <c r="E4">
-        <v>-5.8511034762601168</v>
+        <v>-5.8591282038552643</v>
       </c>
       <c r="F4">
-        <v>-6.112638505173259</v>
+        <v>-6.0622405872548839</v>
       </c>
       <c r="G4">
-        <v>-6.172891384815664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-6.1714579110719159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>-2.927100130101933</v>
+        <v>-2.0390081499771791</v>
       </c>
       <c r="B5">
-        <v>-2.9161583041123258</v>
+        <v>-2.3641056482837901</v>
       </c>
       <c r="C5">
-        <v>-2.9271002131989721</v>
+        <v>-1.646080716544716</v>
       </c>
       <c r="D5">
-        <v>-2.9166397688080679</v>
+        <v>-2.902427299099737</v>
       </c>
       <c r="E5">
-        <v>-6.0883073122999942</v>
+        <v>-5.002609679420358</v>
       </c>
       <c r="F5">
-        <v>-7.129440745524446</v>
+        <v>-7.045883901500239</v>
       </c>
       <c r="G5">
-        <v>-7.37178135292334</v>
+        <v>-7.37143061131093</v>
       </c>
     </row>
   </sheetData>
@@ -851,29 +842,29 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -884,31 +875,31 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>-0.81965367083204432</v>
       </c>
       <c r="B2">
-        <v>-0.76432489668479098</v>
+        <v>-0.98501355754821629</v>
       </c>
       <c r="C2">
-        <v>-0.81965321806768354</v>
+        <v>-0.98617087275308546</v>
       </c>
       <c r="D2">
-        <v>-0.7695414162623484</v>
+        <v>-1.1853560279732827</v>
       </c>
       <c r="E2">
-        <v>-2.2855475809094816</v>
+        <v>-2.3555228280761029</v>
       </c>
       <c r="F2">
-        <v>-2.4169311572378636</v>
+        <v>-2.4149337956060304</v>
       </c>
       <c r="G2">
-        <v>-2.46918659379267</v>
+        <v>-2.4691865937951465</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -916,25 +907,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.85702693163864596</v>
+        <v>-1.0496770836810931</v>
       </c>
       <c r="B3">
-        <v>-0.87408010056667274</v>
+        <v>-0.97377118632805992</v>
       </c>
       <c r="C3">
-        <v>-0.85702687497645447</v>
+        <v>-1.0644557566227939</v>
       </c>
       <c r="D3">
-        <v>-0.70017454780329647</v>
+        <v>-0.98267205174165029</v>
       </c>
       <c r="E3">
-        <v>-3.4748673168851352</v>
+        <v>-3.4747390202339639</v>
       </c>
       <c r="F3">
-        <v>-3.51183532179813</v>
+        <v>-3.5079651680712454</v>
       </c>
       <c r="G3">
-        <v>-3.520045558960777</v>
+        <v>-3.5200454030928854</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -942,25 +933,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.0096598358504967</v>
+        <v>-0.92213883225253701</v>
       </c>
       <c r="B4">
-        <v>-1.0034636251813887</v>
+        <v>-0.90436861489074949</v>
       </c>
       <c r="C4">
-        <v>-1.0096597209288538</v>
+        <v>-1.1274146645488847</v>
       </c>
       <c r="D4">
-        <v>-1.0023842409329495</v>
+        <v>-1.1558387613492442</v>
       </c>
       <c r="E4">
-        <v>-4.6352525347718707</v>
+        <v>-4.6059708616393547</v>
       </c>
       <c r="F4">
-        <v>-4.449134074748638</v>
+        <v>-4.6571613367081977</v>
       </c>
       <c r="G4">
-        <v>-4.758592667765207</v>
+        <v>-4.7698185720349757</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -968,25 +959,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.1927284798210431</v>
+        <v>-0.94826174686049225</v>
       </c>
       <c r="B5">
-        <v>-1.1920266016253469</v>
+        <v>-0.92313075300958713</v>
       </c>
       <c r="C5">
-        <v>-1.192728627521318</v>
+        <v>-1.1909666848677622</v>
       </c>
       <c r="D5">
-        <v>-1.1922765767568699</v>
+        <v>-1.1893163922656111</v>
       </c>
       <c r="E5">
-        <v>-4.9975208174445811</v>
+        <v>-4.0959941052219575</v>
       </c>
       <c r="F5">
-        <v>-5.146376973865246</v>
+        <v>-5.175883432397215</v>
       </c>
       <c r="G5">
-        <v>-5.8614623147945535</v>
+        <v>-5.861590223379694</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1002,32 +993,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F0EA69-7794-FB45-9F94-24E0DEA4E386}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1038,31 +1029,31 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>4.2344127206935506E-2</v>
       </c>
       <c r="B2">
-        <v>7.2012263168160145E-2</v>
+        <v>-0.10962827732185756</v>
       </c>
       <c r="C2">
-        <v>4.2345691364664505E-2</v>
+        <v>-0.1110763475809235</v>
       </c>
       <c r="D2">
-        <v>6.7586386078507713E-2</v>
+        <v>-0.28419373493275191</v>
       </c>
       <c r="E2">
-        <v>-1.3347974360196915</v>
+        <v>-1.3071229995076274</v>
       </c>
       <c r="F2">
-        <v>-1.3337471871351982</v>
+        <v>-1.3279810426154202</v>
       </c>
       <c r="G2">
-        <v>-1.3436510057941333</v>
+        <v>-1.3436510058524278</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1070,25 +1061,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.29799133788691162</v>
+        <v>6.4004490585192281E-2</v>
       </c>
       <c r="B3">
-        <v>0.28530118248229591</v>
+        <v>0.1088348990416961</v>
       </c>
       <c r="C3">
-        <v>0.29799134571714508</v>
+        <v>0.11540184285741845</v>
       </c>
       <c r="D3">
-        <v>0.43092246754387314</v>
+        <v>0.18826789668031188</v>
       </c>
       <c r="E3">
-        <v>-2.1266750106615202</v>
+        <v>-2.1264974867676241</v>
       </c>
       <c r="F3">
-        <v>-2.120603694308332</v>
+        <v>-2.1247230717169754</v>
       </c>
       <c r="G3">
-        <v>-2.1170111972381846</v>
+        <v>-2.1170110361170078</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1096,25 +1087,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.30795136364445003</v>
+        <v>0.39088794334731275</v>
       </c>
       <c r="B4">
-        <v>0.31631608510850656</v>
+        <v>0.39408442500232255</v>
       </c>
       <c r="C4">
-        <v>0.3079515004736057</v>
+        <v>0.22785990223351557</v>
       </c>
       <c r="D4">
-        <v>0.31696590903083527</v>
+        <v>0.20088956904279381</v>
       </c>
       <c r="E4">
-        <v>-2.8666252774677026</v>
+        <v>-2.8554943527616805</v>
       </c>
       <c r="F4">
-        <v>-2.8343768711927146</v>
+        <v>-2.876035915373734</v>
       </c>
       <c r="G4">
-        <v>-2.9057428299381636</v>
+        <v>-2.8979258263451357</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1122,25 +1113,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.32700773887447665</v>
+        <v>0.60048280061219417</v>
       </c>
       <c r="B5">
-        <v>0.32882784050514424</v>
+        <v>0.61107234347727402</v>
       </c>
       <c r="C5">
-        <v>0.32700767331122382</v>
+        <v>0.2571299211646134</v>
       </c>
       <c r="D5">
-        <v>0.32780671424639946</v>
+        <v>0.3430215491468377</v>
       </c>
       <c r="E5">
-        <v>-3.266418566009726</v>
+        <v>-2.478113153354985</v>
       </c>
       <c r="F5">
-        <v>-3.3001581689499577</v>
+        <v>-3.2264337870146345</v>
       </c>
       <c r="G5">
-        <v>-3.6286380533527516</v>
+        <v>-3.628646945199899</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1154,152 +1145,164 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97888836-164C-094F-BF6D-4F7F72F4BBB5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2">
-        <v>14.4</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="C2">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D2">
-        <v>67.7</v>
-      </c>
-      <c r="E2">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>14.2</v>
+        <v>1.71</v>
       </c>
       <c r="C3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D3">
-        <v>69.3</v>
-      </c>
-      <c r="E3">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>58.6</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.27600000000000002</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>291</v>
+        <v>1300</v>
       </c>
       <c r="E4">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F4">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>57.5</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.23499999999999999</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>294</v>
+        <v>1700</v>
       </c>
       <c r="E5">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.2</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.246</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>76.099999999999994</v>
+        <v>500</v>
       </c>
       <c r="E7">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>15.7</v>
+        <v>1.67</v>
       </c>
       <c r="C8">
-        <v>0.27800000000000002</v>
+        <v>1.57</v>
       </c>
       <c r="D8">
-        <v>77.099999999999994</v>
+        <v>490</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>122</v>
+      </c>
+      <c r="F8">
+        <v>16.3</v>
+      </c>
+      <c r="G8">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
